--- a/ЗАВОДЫ/ПОКОМ/заказы/статистика филиалы/2025/08,25/21,08,25 ПОКОМ КИ филиалы/дв 21,08,25 лгрсч пок ки от Майбы (согласовал Котов).xlsx
+++ b/ЗАВОДЫ/ПОКОМ/заказы/статистика филиалы/2025/08,25/21,08,25 ПОКОМ КИ филиалы/дв 21,08,25 лгрсч пок ки от Майбы (согласовал Котов).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\ПОКОМ\заказы\статистика филиалы\2025\08,25\21,08,25 ПОКОМ КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADA0926-8621-4592-9A46-4D389878B862}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A18DEE-FB21-4280-A5C8-3D8E633E422B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -495,7 +495,7 @@
     <t>25,08,</t>
   </si>
   <si>
-    <t>27,08,</t>
+    <t>(отмена)27,08,</t>
   </si>
 </sst>
 </file>
@@ -954,7 +954,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH1" sqref="AH1"/>
+      <selection pane="bottomRight" activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1">
-        <f t="shared" ref="AJ7:AK70" si="10">ROUND(G7*S7,0)</f>
+        <f t="shared" ref="AJ7:AJ70" si="10">ROUND(G7*S7,0)</f>
         <v>158</v>
       </c>
       <c r="AK7" s="1">
@@ -9560,7 +9560,7 @@
         <v>121</v>
       </c>
       <c r="AJ71" s="1">
-        <f t="shared" ref="AJ71:AK96" si="29">ROUND(G71*S71,0)</f>
+        <f t="shared" ref="AJ71:AJ96" si="29">ROUND(G71*S71,0)</f>
         <v>0</v>
       </c>
       <c r="AK71" s="1">
